--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2023.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\OneDrive\문서\Lab\01.1921\2023-1-OPPS1-1921-5\Z3 Solver\GraduationRequirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440CC721-82C6-4373-8D42-4826B2361D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B15E12-CFA8-42AB-9B3B-93FAAFA1E7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="12615" yWindow="795" windowWidth="12705" windowHeight="11910" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t>전공필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,10 +342,6 @@
   </si>
   <si>
     <t>지구환경과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학문개론 4택1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -855,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,22 +864,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -895,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -903,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -935,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -950,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1070,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1087,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1123,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -1162,90 +1158,90 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1310,7 +1306,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1380,7 +1376,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1552,9 +1548,7 @@
       <c r="D43" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1569,7 +1563,7 @@
       <c r="D44" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -1584,7 +1578,7 @@
       <c r="D45" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -1599,13 +1593,12 @@
       <c r="D46" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E43:E46"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="E34:E39"/>
     <mergeCell ref="E24:E26"/>

--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2023.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\grad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BDAC90-6E1D-4EF2-AE66-DBC94CCB0E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D363A675-2796-4B2B-9A0F-5251F3DEFFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="1290" windowWidth="16515" windowHeight="13230" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="40800" yWindow="-765" windowWidth="16515" windowHeight="13230" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
   <si>
     <t>전공필수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,10 +421,6 @@
   </si>
   <si>
     <t>필수</t>
-  </si>
-  <si>
-    <t>택5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>택3</t>
@@ -842,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1058,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1203,7 +1199,7 @@
         <v>87</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1220,7 +1216,7 @@
         <v>88</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1237,7 +1233,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1254,7 +1250,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1271,7 +1267,7 @@
         <v>91</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1288,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1305,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1322,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1339,7 +1335,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1356,7 +1352,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1373,7 +1369,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1458,7 +1454,7 @@
         <v>49</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1475,7 +1471,7 @@
         <v>51</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1492,7 +1488,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1509,7 +1505,7 @@
         <v>55</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1526,7 +1522,7 @@
         <v>57</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1543,7 +1539,7 @@
         <v>59</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">

--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2023.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\grad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D363A675-2796-4B2B-9A0F-5251F3DEFFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C4820-01E4-45BC-910C-60CA75FCD5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40800" yWindow="-765" windowWidth="16515" windowHeight="13230" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="9300" yWindow="1290" windowWidth="16515" windowHeight="13230" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1284,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">

--- a/Z3 Solver/GraduationRequirement/GraduationRequirements2023.xlsx
+++ b/Z3 Solver/GraduationRequirement/GraduationRequirements2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeheu\Downloads\z3\grad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C4820-01E4-45BC-910C-60CA75FCD5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0900CE-81D1-4F70-9871-C7D72493FF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1290" windowWidth="16515" windowHeight="13230" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
+    <workbookView xWindow="9060" yWindow="1875" windowWidth="15570" windowHeight="11640" xr2:uid="{2A619A1B-6C3E-4E95-A24C-5272A029B6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,14 +423,15 @@
     <t>필수</t>
   </si>
   <si>
+    <t>택1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>택3</t>
-  </si>
-  <si>
-    <t>택1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892549DD-7741-4CD4-804D-2EE94914B9F6}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1054,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1199,7 +1200,7 @@
         <v>87</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1216,7 +1217,7 @@
         <v>88</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1233,7 +1234,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1250,7 +1251,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1267,7 +1268,7 @@
         <v>91</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1284,7 +1285,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1302,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1318,7 +1319,7 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1335,7 +1336,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1352,7 +1353,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1369,7 +1370,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1454,7 +1455,7 @@
         <v>49</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1471,7 +1472,7 @@
         <v>51</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1488,7 +1489,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1505,7 +1506,7 @@
         <v>55</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1522,7 +1523,7 @@
         <v>57</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1539,7 +1540,7 @@
         <v>59</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
